--- a/trunk/CASOS DE USO/CasosDeUso_V(3.2).xlsx
+++ b/trunk/CASOS DE USO/CasosDeUso_V(3.2).xlsx
@@ -422,9 +422,6 @@
     <t xml:space="preserve"> Lanzar dados ,mover ficha, transacción, pago casilla inicial,  verificar casilla en que cae jugador, disminuir tiempo turno </t>
   </si>
   <si>
-    <t>Tener en cuenta propiedades especiales (parqueadero y servicios públicos)</t>
-  </si>
-  <si>
     <t>Perfiles de otro jugadores , actualizar estadísticas  al final del juego</t>
   </si>
   <si>
@@ -438,6 +435,9 @@
   </si>
   <si>
     <t>Corresponde a las de arca comunal y casualidad</t>
+  </si>
+  <si>
+    <t>Tener en cuenta propiedades especiales casinos y servicios públicos</t>
   </si>
 </sst>
 </file>
@@ -1302,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1424,7 +1424,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>129</v>
@@ -1444,7 +1444,7 @@
         <v>110</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1505,7 +1505,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>131</v>
@@ -1650,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>132</v>
@@ -3321,10 +3321,10 @@
     </row>
     <row r="21" spans="3:4" ht="30" customHeight="1">
       <c r="C21" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="30" customHeight="1"/>

--- a/trunk/CASOS DE USO/CasosDeUso_V(3.2).xlsx
+++ b/trunk/CASOS DE USO/CasosDeUso_V(3.2).xlsx
@@ -1303,7 +1303,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
